--- a/WorkSubmissions02/Participant_48971_assignsubmission_file/submission_info.xlsx
+++ b/WorkSubmissions02/Participant_48971_assignsubmission_file/submission_info.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,13 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,17 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -440,6 +444,11 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Suggested Grade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,6 +461,9 @@
           <t>48971</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +476,7 @@
           <t>roeiandguy 2. Student one: Roei Bracha 208933325 3. Student two: Guy Bilitski 2087332532 4. Repo link https://github.com/Roei-Bracha/llm-hw-lstm  5. Grade suggestion: 90 6. Notes: we have submitted the code before you published the new instruction (you can check the git commits timestamp) you said you will take this into account on the checking of the assignment. The submition on module will be diNerent since I have added this comment.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,6 +485,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,6 +494,7 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +507,7 @@
           <t>https://github.com/Roei-Bracha/llm-hw-lstm</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -499,7 +515,10 @@
           <t>Suggested Grade</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -512,6 +531,7 @@
           <t>hw2 llms agents.pdf</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
